--- a/CS2101_G06.xlsx
+++ b/CS2101_G06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neoru\Documents\NUS\Y2S1\CS2103T\Team Project\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darea\Documents\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFD2BD-8164-4918-9419-1F087D506AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB81F90-90DB-488E-8421-A0291903428B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,13 @@
     <t>T6</t>
   </si>
   <si>
-    <t>A0205306U</t>
-  </si>
-  <si>
     <t>T7</t>
   </si>
   <si>
     <t>RUIEY</t>
+  </si>
+  <si>
+    <t>A0202106U</t>
   </si>
 </sst>
 </file>
@@ -273,189 +273,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>338137</xdr:rowOff>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>376236</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="e69c3e4d-a819-41dd-9585-6e67411ad498">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AE34DB-E2D6-4456-AEDE-46ACF85CD767}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1062037"/>
-          <a:ext cx="285750" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="c7a2e13c-0797-494f-a1c3-f73030f4ed6e">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE24F19-9D88-422C-AD50-45F3714D54DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1471613"/>
-          <a:ext cx="285750" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>379413</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="c009e28f-ec3b-4945-a9fc-cedb786ae7b8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF160F72-E112-4721-8AD3-2CCA3CDC26A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1838325"/>
-          <a:ext cx="285750" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="d82a86a5-55b7-4808-a5b7-a7a2a62865ab">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC529F7-DBE6-4BA3-BEFC-E90E17C1095F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2233613"/>
-          <a:ext cx="285750" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -471,15 +295,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2652713"/>
-          <a:ext cx="285750" cy="381000"/>
+          <a:off x="0" y="935355"/>
+          <a:ext cx="523874" cy="481965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -791,16 +620,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +646,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -830,7 +659,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5"/>
@@ -842,7 +671,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -869,7 +698,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -898,17 +727,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>

--- a/CS2101_G06.xlsx
+++ b/CS2101_G06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darea\Documents\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neoru\Documents\NUS\Y2S1\CS2103T\Team Project\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB81F90-90DB-488E-8421-A0291903428B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFD2BD-8164-4918-9419-1F087D506AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,13 +68,13 @@
     <t>T6</t>
   </si>
   <si>
+    <t>A0205306U</t>
+  </si>
+  <si>
     <t>T7</t>
   </si>
   <si>
     <t>RUIEY</t>
-  </si>
-  <si>
-    <t>A0202106U</t>
   </si>
 </sst>
 </file>
@@ -273,13 +273,189 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>338137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>376236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="e69c3e4d-a819-41dd-9585-6e67411ad498">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AE34DB-E2D6-4456-AEDE-46ACF85CD767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1062037"/>
+          <a:ext cx="285750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="c7a2e13c-0797-494f-a1c3-f73030f4ed6e">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE24F19-9D88-422C-AD50-45F3714D54DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1471613"/>
+          <a:ext cx="285750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>379413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="c009e28f-ec3b-4945-a9fc-cedb786ae7b8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF160F72-E112-4721-8AD3-2CCA3CDC26A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1838325"/>
+          <a:ext cx="285750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="d82a86a5-55b7-4808-a5b7-a7a2a62865ab">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC529F7-DBE6-4BA3-BEFC-E90E17C1095F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2233613"/>
+          <a:ext cx="285750" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -295,20 +471,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="935355"/>
-          <a:ext cx="523874" cy="481965"/>
+          <a:off x="0" y="2652713"/>
+          <a:ext cx="285750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,16 +791,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +817,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -659,7 +830,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5"/>
@@ -671,7 +842,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -698,7 +869,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -727,17 +898,17 @@
         <v>10</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="17">
         <v>1</v>

--- a/CS2101_G06.xlsx
+++ b/CS2101_G06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darea\Documents\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neoru\Documents\NUS\Y2S1\CS2103T\Team Project\tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB81F90-90DB-488E-8421-A0291903428B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73983A82-F9EB-470A-8028-1A5C98885751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{421CD01B-00FF-4255-A315-0A58B00F9296}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,16 +620,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +646,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
@@ -659,7 +659,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5"/>
@@ -671,7 +671,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -698,7 +698,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -731,7 +731,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
